--- a/similarities/split_global/harmonic_similarity_timestamps_267.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_267.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,191 +484,225 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_0</t>
+          <t>isophonics_138</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_181</t>
+          <t>schubert-winterreise_71</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['Db', 'Db:7', 'Gb'], ['Db', 'Ab', 'Db']]</t>
+          <t>['C:min', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'D#:7', 'G#:maj'], ['D#:maj', 'A#:maj', 'D#:maj']]</t>
+          <t>['C:min', 'G:7/D', 'C:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:22.947687', '0:00:32.374988'), ('0:00:05.571955', '0:00:28.079297')]</t>
+          <t>('0:00:01.129708', '0:00:06.125260')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:17.980000', '0:00:26.320000'), ('0:00:02.560000', '0:00:21.440000')]</t>
+          <t>('0:00:00.360000', '0:00:07.140000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-0#t=22.947687', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-0#t=5.571955']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-138#t=1.129708</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=17.98', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=2.56']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-71#t=0.36</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_197</t>
+          <t>schubert-winterreise_193</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
+          <t>schubert-winterreise_143</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['D', 'E', 'A']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['G', 'A', 'D']]</t>
+          <t>['B:min', 'F#:maj', 'B:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:16.088141', '0:00:27.709728')]</t>
+          <t>('0:00:13.720000', '0:00:20.760000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:44.836000', '0:00:49.319000')]</t>
+          <t>('0:00:13.420000', '0:00:19.500000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-197#t=16.088141']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=13.72</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=44.836']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=13.42</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
+          <t>schubert-winterreise_95</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_67</t>
+          <t>schubert-winterreise_0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['C:min', 'F:min', 'C:min/G']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>['B:min', 'E:min/B', 'B:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:39.040000', '0:00:46.100000')]</t>
+          <t>('0:00:07.300000', '0:00:10.300000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:00.300000', '0:00:02.820000')]</t>
+          <t>('0:00:25.480000', '0:00:32.580000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-20#t=39.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=7.3</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-67#t=0.3']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=25.48</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_72</t>
+          <t>schubert-winterreise_77</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_196</t>
+          <t>schubert-winterreise_61</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['F:min', 'F#/A#', 'F:min/C']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['G:min', 'G#:maj/C', 'G:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:00.380000', '0:00:08.900000')]</t>
+          <t>('0:03:07.920000', '0:03:10.220000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:08.700000', '0:00:26.220000')]</t>
+          <t>('0:00:44.620000', '0:00:47.460000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=0.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-77#t=187.92</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-196#t=8.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=44.62</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_150</t>
+          <t>schubert-winterreise_198</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -678,32 +712,32 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:02:20.480000', '0:02:25.980000')]</t>
+          <t>('0:00:16.560000', '0:00:45.260000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:43.180000', '0:00:45.100000')]</t>
+          <t>('0:01:06.920000', '0:01:24.540000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=140.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=16.56</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=43.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=66.92</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -712,470 +746,492 @@
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_78</t>
+          <t>isophonics_45</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_161</t>
+          <t>isophonics_150</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['G:min', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj', 'G:maj']]</t>
+          <t>['A:min', 'D', 'G']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:33.814625', '0:00:37.738798')]</t>
+          <t>('0:02:18.210000', '0:02:22.877000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:12.540000', '0:00:14.560000')]</t>
+          <t>('0:00:22.829118', '0:00:26.567531')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-78#t=33.814625']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=138.21</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-161#t=12.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-150#t=22.829118</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
+          <t>schubert-winterreise_126</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_49</t>
+          <t>schubert-winterreise_162</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/B', 'A:min/C']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:00.360000', '0:00:05')]</t>
+          <t>('0:00:24.520000', '0:00:47.240000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:00.340000', '0:00:02.340000')]</t>
+          <t>('0:00:23.260000', '0:00:33.620000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-19#t=0.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=24.52</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-49#t=0.34']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-162#t=23.26</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>schubert-winterreise_14</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_127</t>
+          <t>schubert-winterreise_46</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:00.040000', '0:01:07.080000')]</t>
+          <t>('0:00:10.560000', '0:00:27.360000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:01.014823', '0:00:12.241493')]</t>
+          <t>('0:00:29.220000', '0:01:02.420000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=60.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=10.56</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-127#t=1.014823']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-46#t=29.22</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_56</t>
+          <t>isophonics_35</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['A:7/G', 'D:maj/F#', 'D:maj/A'], ['E:7/G#', 'A:7/G', 'D:maj/F#']]</t>
+          <t>['A:min/C', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'C/7'], ['D:7', 'G:7', 'C']]</t>
+          <t>['D:min', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:03:47.620000', '0:03:55.060000'), ('0:00:54.260000', '0:01:01.020000')]</t>
+          <t>('0:00:05.800000', '0:00:11.860000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:12.318208', '0:00:18.355396'), ('0:01:58.584331', '0:02:07.280204')]</t>
+          <t>('0:00:10.937548', '0:00:15.824081')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=227.62', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=54.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=5.8</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-56#t=12.318208', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-56#t=118.584331']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-35#t=10.937548</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_269</t>
+          <t>isophonics_61</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
+          <t>schubert-winterreise_21</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['A:min', 'G', 'F']]</t>
+          <t>['F#:min', 'C#', 'F#:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['A#:min/C#', 'G#:maj/C', 'F#:maj/A#']]</t>
+          <t>['D#:min', 'A#:maj', 'D#:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:27.812000', '0:00:30.842000')]</t>
+          <t>('0:00:03.744784', '0:00:06.774988')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:32.580000', '0:00:35.040000')]</t>
+          <t>('0:00:02.660000', '0:00:07.980000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-269#t=27.812']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-61#t=3.744784</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-93#t=32.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-21#t=2.66</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_161</t>
+          <t>schubert-winterreise_61</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>schubert-winterreise_171</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['C:min/D#', 'G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['B:min/F#', 'F#:min', 'C#:7', 'F#:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:01.600000', '0:00:12.540000')]</t>
+          <t>('0:00:42.140000', '0:00:44.360000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:55.400000', '0:01:05.220000')]</t>
+          <t>('0:00:02.680000', '0:00:08.620000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-161#t=1.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=42.14</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=55.4']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=2.68</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_30</t>
+          <t>isophonics_108</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_214</t>
+          <t>isophonics_2</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
+          <t>['Bb/3', 'Eb:maj', 'Bb/3']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:12.510000', '0:00:13.910000')]</t>
+          <t>('0:00:01.829138', '0:00:15.586961')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:09.200000', '0:00:20.100000')]</t>
+          <t>('0:00:38.041000', '0:00:42.375000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=12.51']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-108#t=1.829138</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-214#t=9.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=38.041</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>schubert-winterreise_96</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_6</t>
+          <t>isophonics_157</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'E:min7', 'A:7', 'D']]</t>
+          <t>['E', 'B', 'E']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:03.180000', '0:01:11.060000')]</t>
+          <t>('0:00:00.740000', '0:00:21.500000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:26.250000', '0:00:39.805000')]</t>
+          <t>('0:00:12.921927', '0:00:21.908049')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=63.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=0.74</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-6#t=26.25']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-157#t=12.921927</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>schubert-winterreise_132</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>schubert-winterreise_96</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>['F:7/D#', 'A#:maj/D', 'F:maj/C']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>['F:7/D#', 'A#:maj/D', 'F:maj/C']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:02.360000', '0:00:09.640000')]</t>
+          <t>('0:01:01.680000', '0:01:07.260000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:09.560000', '0:00:24.900000')]</t>
+          <t>('0:01:06.040000', '0:01:08.540000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=2.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=61.68</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-175#t=9.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=66.04</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_199</t>
+          <t>schubert-winterreise_51</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_123</t>
+          <t>schubert-winterreise_196</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:02.200000', '0:01:04.400000')]</t>
+          <t>('0:04:14.260000', '0:04:20.200000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:08.413696', '0:00:11.072593')]</t>
+          <t>('0:00:08.700000', '0:00:18.300000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=62.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=254.26</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-123#t=8.413696']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-196#t=8.7</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
